--- a/data/time_period.xlsx
+++ b/data/time_period.xlsx
@@ -1,17 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seojung/PycharmProjects/classschedule/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C1297-2FE3-3344-94B0-3200BA076F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>시간ID</t>
   </si>
@@ -20,15 +40,88 @@
   </si>
   <si>
     <t>종료시간</t>
+  </si>
+  <si>
+    <t>9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -36,14 +129,17 @@
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <sz val="8"/>
+      <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="15"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -85,55 +181,125 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office 테마">
       <a:dk1>
@@ -335,7 +501,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -354,7 +520,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -384,7 +550,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -410,7 +576,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -436,7 +602,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -462,7 +628,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -488,7 +654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -514,7 +680,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -540,7 +706,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -566,7 +732,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -592,7 +758,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -605,9 +771,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -624,7 +796,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -643,7 +815,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -669,7 +841,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -695,7 +867,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -721,7 +893,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -747,7 +919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -773,7 +945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -799,7 +971,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,7 +997,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -851,7 +1023,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,7 +1049,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -890,9 +1062,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -906,7 +1084,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -925,7 +1103,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -955,7 +1133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -981,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1007,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1059,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +1263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1315,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1176,278 +1354,288 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="17.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17.5" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="16" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1">
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
-        <v>44600.375</v>
-      </c>
-      <c r="C2" s="5">
-        <v>44600.395833333336</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:5" ht="16" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>44600.395833333336</v>
-      </c>
-      <c r="C3" s="5">
-        <v>44600.416666666664</v>
-      </c>
-      <c r="D3" s="3"/>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:5" ht="16" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>44600.416666666664</v>
-      </c>
-      <c r="C4" s="5">
-        <v>44600.4375</v>
-      </c>
-      <c r="D4" s="3"/>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:5" ht="16" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>44600.4375</v>
-      </c>
-      <c r="C5" s="5">
-        <v>44600.458333333336</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:5" ht="16" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
-        <v>44600.458333333336</v>
-      </c>
-      <c r="C6" s="5">
-        <v>44600.479166666664</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:5" ht="16" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>44600.479166666664</v>
-      </c>
-      <c r="C7" s="5">
-        <v>44600.5</v>
-      </c>
-      <c r="D7" s="3"/>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:5" ht="16" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
-        <v>44600.5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44600.520833333336</v>
-      </c>
-      <c r="D8" s="3"/>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:5" ht="16" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <v>44600.520833333336</v>
-      </c>
-      <c r="C9" s="5">
-        <v>44600.541666666664</v>
-      </c>
-      <c r="D9" s="3"/>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
-        <v>44600.541666666664</v>
-      </c>
-      <c r="C10" s="5">
-        <v>44600.5625</v>
-      </c>
-      <c r="D10" s="3"/>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
+    <row r="11" spans="1:5" ht="16" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>44600.5625</v>
-      </c>
-      <c r="C11" s="5">
-        <v>44600.583333333336</v>
-      </c>
-      <c r="D11" s="3"/>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" spans="1:5" ht="16" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
-        <v>44600.583333333336</v>
-      </c>
-      <c r="C12" s="5">
-        <v>44600.604166666664</v>
-      </c>
-      <c r="D12" s="3"/>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" spans="1:5" ht="16" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
-        <v>44600.604166666664</v>
-      </c>
-      <c r="C13" s="5">
-        <v>44600.625</v>
-      </c>
-      <c r="D13" s="3"/>
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row r="14" spans="1:5" ht="16" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
-        <v>44600.625</v>
-      </c>
-      <c r="C14" s="5">
-        <v>44600.645833333336</v>
-      </c>
-      <c r="D14" s="3"/>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
+    <row r="15" spans="1:5" ht="16" customHeight="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
-        <v>44600.645833333336</v>
-      </c>
-      <c r="C15" s="5">
-        <v>44600.666666666664</v>
-      </c>
-      <c r="D15" s="3"/>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
+    <row r="16" spans="1:5" ht="16" customHeight="1">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
-        <v>44600.666666666664</v>
-      </c>
-      <c r="C16" s="5">
-        <v>44600.6875</v>
-      </c>
-      <c r="D16" s="3"/>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
+    <row r="17" spans="1:5" ht="16" customHeight="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
-        <v>44600.6875</v>
-      </c>
-      <c r="C17" s="5">
-        <v>44600.708333333336</v>
-      </c>
-      <c r="D17" s="3"/>
+      <c r="B17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
+    <row r="18" spans="1:5" ht="16" customHeight="1">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
-        <v>44600.708333333336</v>
-      </c>
-      <c r="C18" s="5">
-        <v>44600.729166666664</v>
-      </c>
-      <c r="D18" s="3"/>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
+    <row r="19" spans="1:5" ht="16" customHeight="1">
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
-        <v>44600.729166666664</v>
-      </c>
-      <c r="C19" s="5">
-        <v>44600.75</v>
-      </c>
-      <c r="D19" s="3"/>
+      <c r="B19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/time_period.xlsx
+++ b/data/time_period.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seojung/PycharmProjects/classschedule/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C1297-2FE3-3344-94B0-3200BA076F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B323321-2949-8B4F-82CE-72C629215D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1376,7 +1376,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17.5" customHeight="1"/>

--- a/data/time_period.xlsx
+++ b/data/time_period.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seojung/PycharmProjects/classschedule/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B323321-2949-8B4F-82CE-72C629215D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609B595C-D6B2-0048-A6B5-A301D7092872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/time_period.xlsx
+++ b/data/time_period.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbswl\PycharmProjects\classschedule\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8437B4A5-1B02-4D8D-9E2C-7A4F5ECBED3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="9576" yWindow="996" windowWidth="13932" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>시간ID</t>
   </si>
@@ -20,30 +29,106 @@
   </si>
   <si>
     <t>종료시간</t>
+  </si>
+  <si>
+    <t>09:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -85,55 +170,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office 테마">
       <a:dk1>
@@ -335,7 +481,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -354,7 +500,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -384,7 +530,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -410,7 +556,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -436,7 +582,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -462,7 +608,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -488,7 +634,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -514,7 +660,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -540,7 +686,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -566,7 +712,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -592,7 +738,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -605,9 +751,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -624,7 +776,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -643,7 +795,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -669,7 +821,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -695,7 +847,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -721,7 +873,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -747,7 +899,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -773,7 +925,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -799,7 +951,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,7 +977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -851,7 +1003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,7 +1029,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -890,9 +1042,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -906,7 +1064,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -925,7 +1083,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -955,7 +1113,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -981,7 +1139,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1007,7 +1165,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1191,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1059,7 +1217,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +1243,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1269,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1295,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1321,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1176,278 +1334,288 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="17.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="6" width="8.796875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row r="2" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
-        <v>44600.375</v>
-      </c>
-      <c r="C2" s="5">
-        <v>44600.395833333336</v>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>44600.395833333336</v>
-      </c>
-      <c r="C3" s="5">
-        <v>44600.416666666664</v>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>44600.416666666664</v>
-      </c>
-      <c r="C4" s="5">
-        <v>44600.4375</v>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>44600.4375</v>
-      </c>
-      <c r="C5" s="5">
-        <v>44600.458333333336</v>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
-        <v>44600.458333333336</v>
-      </c>
-      <c r="C6" s="5">
-        <v>44600.479166666664</v>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>44600.479166666664</v>
-      </c>
-      <c r="C7" s="5">
-        <v>44600.5</v>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
-        <v>44600.5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44600.520833333336</v>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <v>44600.520833333336</v>
-      </c>
-      <c r="C9" s="5">
-        <v>44600.541666666664</v>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
-        <v>44600.541666666664</v>
-      </c>
-      <c r="C10" s="5">
-        <v>44600.5625</v>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
+    <row r="11" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>44600.5625</v>
-      </c>
-      <c r="C11" s="5">
-        <v>44600.583333333336</v>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
-        <v>44600.583333333336</v>
-      </c>
-      <c r="C12" s="5">
-        <v>44600.604166666664</v>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
-        <v>44600.604166666664</v>
-      </c>
-      <c r="C13" s="5">
-        <v>44600.625</v>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row r="14" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
-        <v>44600.625</v>
-      </c>
-      <c r="C14" s="5">
-        <v>44600.645833333336</v>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
+    <row r="15" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
-        <v>44600.645833333336</v>
-      </c>
-      <c r="C15" s="5">
-        <v>44600.666666666664</v>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
+    <row r="16" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
-        <v>44600.666666666664</v>
-      </c>
-      <c r="C16" s="5">
-        <v>44600.6875</v>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
+    <row r="17" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
-        <v>44600.6875</v>
-      </c>
-      <c r="C17" s="5">
-        <v>44600.708333333336</v>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
+    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
-        <v>44600.708333333336</v>
-      </c>
-      <c r="C18" s="5">
-        <v>44600.729166666664</v>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
+    <row r="19" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
-        <v>44600.729166666664</v>
-      </c>
-      <c r="C19" s="5">
-        <v>44600.75</v>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/time_period.xlsx
+++ b/data/time_period.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbswl\PycharmProjects\classschedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8437B4A5-1B02-4D8D-9E2C-7A4F5ECBED3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7C9770-8C5B-4F91-9BB3-A51FF22EA544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9576" yWindow="996" windowWidth="13932" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9108" yWindow="996" windowWidth="13932" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>시간ID</t>
   </si>
@@ -104,6 +104,26 @@
   </si>
   <si>
     <t>18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1353,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1612,6 +1632,71 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
+    <row r="20" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/time_period.xlsx
+++ b/data/time_period.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbswl\PycharmProjects\classschedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7C9770-8C5B-4F91-9BB3-A51FF22EA544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05385919-1C00-4558-88C5-4A4C3310CDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9108" yWindow="996" windowWidth="13932" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>시간ID</t>
   </si>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>21:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1373,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1692,10 +1696,23 @@
         <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/time_period.xlsx
+++ b/data/time_period.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seojung/Downloads/classschedule-main-11/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\classschedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99171453-E411-B544-9153-A617A048BFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="1000" windowWidth="13940" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9100" yWindow="1000" windowWidth="13940" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>시간ID</t>
   </si>
@@ -123,15 +122,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>20:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>21:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -165,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -188,13 +207,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -211,6 +345,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1372,20 +1542,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="6" width="8.83203125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1568,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1">
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -1411,7 +1581,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1">
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1424,7 +1594,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1">
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1437,7 +1607,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1">
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1450,7 +1620,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1">
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1463,7 +1633,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1">
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1476,7 +1646,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1">
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1489,7 +1659,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1">
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1502,7 +1672,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1515,7 +1685,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="16" customHeight="1">
+    <row r="11" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1528,7 +1698,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="16" customHeight="1">
+    <row r="12" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1541,7 +1711,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="16" customHeight="1">
+    <row r="13" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1554,7 +1724,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="16" customHeight="1">
+    <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1567,7 +1737,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="16" customHeight="1">
+    <row r="15" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1580,7 +1750,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="16" customHeight="1">
+    <row r="16" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1593,7 +1763,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="16" customHeight="1">
+    <row r="17" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1606,7 +1776,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1">
+    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1619,7 +1789,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="16" customHeight="1">
+    <row r="19" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1632,7 +1802,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="17.5" customHeight="1">
+    <row r="20" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1645,7 +1815,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="17.5" customHeight="1">
+    <row r="21" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1658,7 +1828,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="17.5" customHeight="1">
+    <row r="22" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1671,7 +1841,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="17.5" customHeight="1">
+    <row r="23" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -1684,7 +1854,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="17.5" customHeight="1">
+    <row r="24" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -1697,14 +1867,53 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="17.5" customHeight="1">
-      <c r="A25" s="4">
+    <row r="25" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="13">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="14">
+        <v>25</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="15">
+        <v>100</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/time_period.xlsx
+++ b/data/time_period.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\classschedule\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbswl\PycharmProjects\classschedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541E3ADE-6D90-43C9-B022-59F78CFA7A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="1000" windowWidth="13940" windowHeight="10080"/>
+    <workbookView xWindow="9108" yWindow="1248" windowWidth="13932" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1542,20 +1543,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.55" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="6" width="8.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="6" width="8.796875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1568,7 +1569,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -1581,7 +1582,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1594,7 +1595,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1607,7 +1608,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1620,7 +1621,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1633,7 +1634,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1646,7 +1647,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1659,7 +1660,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1672,7 +1673,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1685,7 +1686,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1698,7 +1699,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1711,7 +1712,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1724,7 +1725,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1737,7 +1738,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1750,7 +1751,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1763,7 +1764,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1776,7 +1777,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1789,7 +1790,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1802,7 +1803,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1815,7 +1816,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1828,7 +1829,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1841,7 +1842,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -1854,7 +1855,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -1867,7 +1868,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -1880,7 +1881,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="13">
         <v>24</v>
       </c>
@@ -1893,7 +1894,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="14">
         <v>25</v>
       </c>
@@ -1906,9 +1907,9 @@
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="15">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>

--- a/data/time_period.xlsx
+++ b/data/time_period.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\classschedule\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="9100" yWindow="1000" windowWidth="13940" windowHeight="10080"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>시간ID</t>
   </si>
@@ -31,143 +23,108 @@
   </si>
   <si>
     <t>09:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>09:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00</t>
   </si>
   <si>
     <t>10:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>11:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>11:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>12:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>12:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>14:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>14:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>15:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>15:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>16:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>16:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>17:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>17:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>18:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>18:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>19:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>19:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>21:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>21:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>22:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -184,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -217,46 +174,24 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="3"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color theme="3"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color theme="3"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color theme="3"/>
+        <color indexed="11"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top style="thin">
-        <color theme="3"/>
-      </top>
-      <bottom style="thin">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top style="thin">
-        <color theme="3"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -267,209 +202,119 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color theme="3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color theme="3"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color theme="3"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="3"/>
+        <color indexed="10"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
       <top style="thin">
-        <color theme="3"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color theme="3"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="3"/>
+        <color indexed="11"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
       <bottom style="thin">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="3"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa7a7a7"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office 테마">
       <a:dk1>
@@ -671,7 +516,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -690,7 +535,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -720,7 +565,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -746,7 +591,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -772,7 +617,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -798,7 +643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -824,7 +669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,7 +695,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,7 +721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,7 +747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,7 +773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -941,15 +786,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -966,7 +805,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -985,7 +824,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,7 +850,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1063,7 +902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,7 +928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1115,7 +954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,7 +980,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,7 +1006,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1193,7 +1032,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,7 +1058,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,15 +1071,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1254,7 +1087,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1273,7 +1106,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1162,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +1188,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,7 +1214,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1407,7 +1240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1433,7 +1266,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1459,7 +1292,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1485,7 +1318,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1511,7 +1344,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,401 +1357,391 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="17.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="8.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" ht="16" customHeight="1">
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s" s="2">
         <v>4</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" ht="16" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
+      <c r="C3" t="s" s="2">
+        <v>5</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" ht="16" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" ht="16" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" ht="16" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" ht="16" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s" s="2">
         <v>9</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" ht="16" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s" s="2">
         <v>10</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" ht="16" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s" s="2">
         <v>11</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" ht="16" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s" s="2">
         <v>12</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" ht="16" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s" s="2">
         <v>13</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" ht="16" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s" s="2">
         <v>14</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" ht="16" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" ht="16" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s" s="2">
         <v>16</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" ht="16" customHeight="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s" s="2">
         <v>17</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" ht="16" customHeight="1">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s" s="2">
         <v>18</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" ht="16" customHeight="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" ht="16" customHeight="1">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" ht="16" customHeight="1">
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s" s="2">
         <v>21</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" ht="17.5" customHeight="1">
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" t="s" s="2">
         <v>22</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" ht="17.5" customHeight="1">
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" t="s" s="2">
         <v>23</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" ht="17.5" customHeight="1">
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s" s="2">
         <v>24</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" ht="17.5" customHeight="1">
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s" s="2">
         <v>25</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" ht="17.5" customHeight="1">
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s" s="2">
         <v>26</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="6">
+    <row r="25" ht="17.5" customHeight="1">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" ht="17.5" customHeight="1">
+      <c r="A26" s="8">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="13">
-        <v>24</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" ht="17.5" customHeight="1">
+      <c r="A27" s="12">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s" s="13">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="14">
-        <v>25</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="15">
-        <v>100</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" ht="17.5" customHeight="1">
+      <c r="A28" s="12">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
